--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,21 +43,12 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -67,103 +58,106 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>happy</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -521,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,10 +523,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -590,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,19 +602,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,31 +652,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>110</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4">
+        <v>0.9090909090909091</v>
+      </c>
+      <c r="L4">
+        <v>30</v>
+      </c>
+      <c r="M4">
+        <v>30</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4">
-        <v>0.96875</v>
-      </c>
-      <c r="L4">
-        <v>31</v>
-      </c>
-      <c r="M4">
-        <v>31</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7207792207792207</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C5">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>111</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L5">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5833333333333334</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L6">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M6">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5263157894736842</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>405</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8303571428571429</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.4761904761904762</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D8">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,269 +852,149 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>153</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8043478260869565</v>
+      </c>
+      <c r="L8">
+        <v>37</v>
+      </c>
+      <c r="M8">
+        <v>37</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="L9">
+        <v>65</v>
+      </c>
+      <c r="M9">
+        <v>65</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.7890625</v>
+      </c>
+      <c r="L10">
+        <v>101</v>
+      </c>
+      <c r="M10">
+        <v>101</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L11">
+        <v>21</v>
+      </c>
+      <c r="M11">
+        <v>21</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L12">
+        <v>45</v>
+      </c>
+      <c r="M12">
+        <v>45</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K8">
-        <v>0.8888888888888888</v>
-      </c>
-      <c r="L8">
-        <v>24</v>
-      </c>
-      <c r="M8">
-        <v>24</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>17</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9">
-        <v>0.8823529411764706</v>
-      </c>
-      <c r="L9">
-        <v>45</v>
-      </c>
-      <c r="M9">
-        <v>45</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.351931330472103</v>
-      </c>
-      <c r="C10">
-        <v>82</v>
-      </c>
-      <c r="D10">
-        <v>82</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>151</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L10">
-        <v>46</v>
-      </c>
-      <c r="M10">
-        <v>46</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2790697674418605</v>
-      </c>
-      <c r="C11">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>62</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11">
-        <v>0.8392857142857143</v>
-      </c>
-      <c r="L11">
-        <v>47</v>
-      </c>
-      <c r="M11">
-        <v>47</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.2375</v>
-      </c>
-      <c r="C12">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>61</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.8125</v>
-      </c>
-      <c r="L12">
-        <v>13</v>
-      </c>
-      <c r="M12">
-        <v>13</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1272727272727273</v>
-      </c>
-      <c r="C13">
-        <v>14</v>
-      </c>
-      <c r="D13">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>96</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="K13">
-        <v>0.803921568627451</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1132,21 +1006,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7916666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1158,21 +1032,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1184,21 +1058,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7647058823529411</v>
+        <v>0.6875</v>
       </c>
       <c r="L16">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="M16">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1210,21 +1084,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7586206896551724</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="L17">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="M17">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1236,21 +1110,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.7435897435897436</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1262,21 +1136,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.7241379310344828</v>
+        <v>0.66</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1288,21 +1162,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.72</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1314,21 +1188,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1340,21 +1214,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6438356164383562</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L22">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="M22">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1366,21 +1240,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5666666666666667</v>
+        <v>0.5625</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1392,21 +1266,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.5600000000000001</v>
+        <v>0.5056179775280899</v>
       </c>
       <c r="L24">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="M24">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1418,21 +1292,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.5164319248826291</v>
+        <v>0.5013054830287206</v>
       </c>
       <c r="L25">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="M25">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1444,21 +1318,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>103</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L26">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1470,21 +1344,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5</v>
+        <v>0.4779661016949153</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1496,21 +1370,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>154</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4961240310077519</v>
+        <v>0.4735294117647059</v>
       </c>
       <c r="L28">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="M28">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1522,21 +1396,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>65</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4930555555555556</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L29">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1548,21 +1422,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>73</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4857142857142857</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L30">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M30">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1574,21 +1448,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.03174603174603174</v>
+        <v>0.3598326359832636</v>
       </c>
       <c r="L31">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="M31">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1600,21 +1474,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>305</v>
+        <v>153</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.03170731707317073</v>
+        <v>0.04138702460850112</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1626,7 +1500,85 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>397</v>
+        <v>857</v>
+      </c>
+    </row>
+    <row r="33" spans="10:17">
+      <c r="J33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>0.02219755826859045</v>
+      </c>
+      <c r="L33">
+        <v>20</v>
+      </c>
+      <c r="M33">
+        <v>20</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K34">
+        <v>0.01261682242990654</v>
+      </c>
+      <c r="L34">
+        <v>27</v>
+      </c>
+      <c r="M34">
+        <v>30</v>
+      </c>
+      <c r="N34">
+        <v>0.9</v>
+      </c>
+      <c r="O34">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35">
+        <v>0.01127577319587629</v>
+      </c>
+      <c r="L35">
+        <v>35</v>
+      </c>
+      <c r="M35">
+        <v>38</v>
+      </c>
+      <c r="N35">
+        <v>0.92</v>
+      </c>
+      <c r="O35">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>3069</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,21 +43,27 @@
     <t>crude</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>stop</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
@@ -67,54 +73,54 @@
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
@@ -124,34 +130,40 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>shopping</t>
   </si>
   <si>
     <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
   </si>
   <si>
     <t>19</t>
@@ -515,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,10 +535,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +596,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8823529411764706</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,19 +614,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -626,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -634,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6232876712328768</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>182</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9090909090909091</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -684,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5555555555555556</v>
+        <v>0.5856164383561644</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>171</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K5">
-        <v>0.8846153846153846</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,37 +746,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2666666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>15</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>55</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K6">
-        <v>0.8611111111111112</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2151162790697674</v>
+        <v>0.1996124031007752</v>
       </c>
       <c r="C7">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D7">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7">
-        <v>0.8303571428571429</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1904761904761905</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8">
-        <v>0.8043478260869565</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L8">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="M8">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,21 +888,45 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.1587301587301587</v>
+      </c>
+      <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>159</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K9">
-        <v>0.7926829268292683</v>
+        <v>0.796875</v>
       </c>
       <c r="L9">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="M9">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -902,21 +938,45 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>0.07539682539682539</v>
+      </c>
+      <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>233</v>
+      </c>
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K10">
-        <v>0.7890625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -928,21 +988,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K11">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -954,21 +1014,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K12">
-        <v>0.7758620689655172</v>
+        <v>0.775</v>
       </c>
       <c r="L12">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="M12">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -980,21 +1040,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K13">
-        <v>0.7535211267605634</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1006,21 +1066,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K14">
-        <v>0.75</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L14">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="M14">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1032,21 +1092,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L15">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="M15">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1058,21 +1118,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K16">
-        <v>0.6875</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1084,21 +1144,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K17">
-        <v>0.6698113207547169</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L17">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="M17">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1110,21 +1170,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.675</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1136,21 +1196,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>17</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K19">
-        <v>0.66</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M19">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1162,21 +1222,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K20">
-        <v>0.6507936507936508</v>
+        <v>0.66</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1188,21 +1248,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K21">
-        <v>0.6382978723404256</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1214,21 +1274,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K22">
-        <v>0.6276595744680851</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L22">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M22">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1240,12 +1300,12 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K23">
         <v>0.5625</v>
@@ -1271,16 +1331,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K24">
-        <v>0.5056179775280899</v>
+        <v>0.5456919060052219</v>
       </c>
       <c r="L24">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="M24">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1292,21 +1352,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>44</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>0.5013054830287206</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L25">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="M25">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1318,21 +1378,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>191</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>0.4923076923076923</v>
+        <v>0.4558823529411765</v>
       </c>
       <c r="L26">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="M26">
-        <v>32</v>
+        <v>155</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1344,21 +1404,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>33</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>0.4779661016949153</v>
+        <v>0.4508474576271186</v>
       </c>
       <c r="L27">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M27">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1370,21 +1430,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>0.4735294117647059</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L28">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="M28">
-        <v>161</v>
+        <v>32</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1396,21 +1456,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>179</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>0.4520547945205479</v>
+        <v>0.390625</v>
       </c>
       <c r="L29">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1422,21 +1482,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K30">
-        <v>0.3846153846153846</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1448,21 +1508,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K31">
-        <v>0.3598326359832636</v>
+        <v>0.3556485355648535</v>
       </c>
       <c r="L31">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M31">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1474,21 +1534,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K32">
-        <v>0.04138702460850112</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1500,21 +1560,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>857</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K33">
-        <v>0.02219755826859045</v>
+        <v>0.05502392344497608</v>
       </c>
       <c r="L33">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M33">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1526,59 +1586,111 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>881</v>
+        <v>395</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K34">
-        <v>0.01261682242990654</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N34">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>2113</v>
+        <v>396</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K35">
-        <v>0.01127577319587629</v>
+        <v>0.03243847874720358</v>
       </c>
       <c r="L35">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="M35">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N35">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>3069</v>
+        <v>865</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36">
+        <v>0.01356407857811038</v>
+      </c>
+      <c r="L36">
+        <v>29</v>
+      </c>
+      <c r="M36">
+        <v>34</v>
+      </c>
+      <c r="N36">
+        <v>0.85</v>
+      </c>
+      <c r="O36">
+        <v>0.15</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K37">
+        <v>0.008376288659793814</v>
+      </c>
+      <c r="L37">
+        <v>26</v>
+      </c>
+      <c r="M37">
+        <v>29</v>
+      </c>
+      <c r="N37">
+        <v>0.9</v>
+      </c>
+      <c r="O37">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>3078</v>
       </c>
     </row>
   </sheetData>
